--- a/data/annotations/new_annotation_structure_out/iteration_8/iteration_8_mistral-large-2411-3.xlsx
+++ b/data/annotations/new_annotation_structure_out/iteration_8/iteration_8_mistral-large-2411-3.xlsx
@@ -583,7 +583,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
@@ -1774,10 +1774,10 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         </is>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -1852,10 +1852,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
@@ -1912,7 +1912,7 @@
         <v>1</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -2308,7 +2308,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>1</v>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
@@ -2545,7 +2545,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>1</v>
@@ -2611,7 +2611,7 @@
         </is>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L28" t="n">
         <v>0</v>
@@ -2620,7 +2620,7 @@
         <v>0</v>
       </c>
       <c r="N28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
         <v>1</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -4108,13 +4108,13 @@
         <v>0</v>
       </c>
       <c r="P47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
       </c>
       <c r="R47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" t="n">
         <v>0</v>
@@ -4177,13 +4177,13 @@
         <v>0</v>
       </c>
       <c r="M48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
       </c>
       <c r="O48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P48" t="n">
         <v>0</v>
@@ -4327,7 +4327,7 @@
         </is>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L50" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="S50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T50" t="n">
         <v>0</v>
@@ -4717,10 +4717,10 @@
         </is>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M55" t="n">
         <v>0</v>
@@ -6979,10 +6979,10 @@
         </is>
       </c>
       <c r="K84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M84" t="n">
         <v>0</v>
@@ -7993,7 +7993,7 @@
         </is>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L97" t="n">
         <v>0</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="O97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P97" t="n">
         <v>0</v>
@@ -8071,10 +8071,10 @@
         </is>
       </c>
       <c r="K98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="n">
         <v>0</v>
@@ -8323,7 +8323,7 @@
         <v>0</v>
       </c>
       <c r="Q101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R101" t="n">
         <v>0</v>
